--- a/my_java/src/main/resources/baiduInterface.xlsx
+++ b/my_java/src/main/resources/baiduInterface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZZZZ\auto_test\my_java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6941F9FF-FE50-463F-B61A-77C7B3869B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE139E3C-8A80-43A6-8AE3-C50D88FB26FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
   <si>
     <t>区域编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,14 +241,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{“data_type”:"all", "district_id":"222408"}</t>
-  </si>
-  <si>
-    <t>{“data_type”:"", "district_id":"222410"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{“data_type”:"type", "district_id":"222406"}</t>
+    <t>{"data_type":"type", "district_id":"222406"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data_type":"", "district_id":"222410"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1008,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1089,7 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -1134,7 +1131,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -1155,7 +1152,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" s="4"/>
     </row>
